--- a/.NET/SheetMergeTool/Testdata/Hoge.xlsx
+++ b/.NET/SheetMergeTool/Testdata/Hoge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\SheetMergeTool\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9EBF3F-2CF6-4162-8B4A-16ED43B7496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B8629-4A28-4F0B-BBF4-4034B73E69A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +69,20 @@
   </si>
   <si>
     <t>かかか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -394,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -424,6 +438,14 @@
       </c>
       <c r="C3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="27.75">
+      <c r="B4" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" ph="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
